--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43005,6 +43005,41 @@
         <v>330400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1067600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43040,6 +43040,41 @@
         <v>1067600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>227900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43075,6 +43075,41 @@
         <v>227900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>335600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43110,6 +43110,41 @@
         <v>335600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1625200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43145,6 +43145,41 @@
         <v>1625200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>904900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43180,6 +43180,41 @@
         <v>904900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2731900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43215,6 +43215,41 @@
         <v>2731900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>978500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43250,6 +43250,41 @@
         <v>978500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2440800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43285,6 +43285,41 @@
         <v>2440800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3767000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43320,6 +43320,41 @@
         <v>3767000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>657400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43355,6 +43355,41 @@
         <v>657400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>735800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43390,6 +43390,41 @@
         <v>735800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>693000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43425,6 +43425,76 @@
         <v>693000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>552200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>663600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43495,6 +43495,76 @@
         <v>663600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>285200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>114000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43565,6 +43565,41 @@
         <v>114000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>43200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43600,6 +43600,41 @@
         <v>43200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>403700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43635,6 +43635,41 @@
         <v>403700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>170100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43670,6 +43670,41 @@
         <v>170100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>345700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43705,6 +43705,76 @@
         <v>345700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>221400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>344300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43775,6 +43775,41 @@
         <v>344300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>725000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43810,6 +43810,41 @@
         <v>725000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>982500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2298"/>
+  <dimension ref="A1:I2299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80840,6 +80840,41 @@
         <v>982500</v>
       </c>
     </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>491900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2299"/>
+  <dimension ref="A1:I2300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80875,6 +80875,41 @@
         <v>491900</v>
       </c>
     </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2300" t="n">
+        <v>408800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2300"/>
+  <dimension ref="A1:I2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80910,6 +80910,41 @@
         <v>408800</v>
       </c>
     </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2301" t="n">
+        <v>421100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2301"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80945,6 +80945,41 @@
         <v>421100</v>
       </c>
     </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>535200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2302"/>
+  <dimension ref="A1:I2303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80980,6 +80980,41 @@
         <v>535200</v>
       </c>
     </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>1279400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2303"/>
+  <dimension ref="A1:I2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81015,6 +81015,41 @@
         <v>1279400</v>
       </c>
     </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>635600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2304"/>
+  <dimension ref="A1:I2305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81050,6 +81050,41 @@
         <v>635600</v>
       </c>
     </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2305" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2305" t="n">
+        <v>341300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2305"/>
+  <dimension ref="A1:I2306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81085,6 +81085,41 @@
         <v>341300</v>
       </c>
     </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2306" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2306" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2306" t="n">
+        <v>435200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2306"/>
+  <dimension ref="A1:I2307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81120,6 +81120,41 @@
         <v>435200</v>
       </c>
     </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2307" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2307" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2307" t="n">
+        <v>368900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2307"/>
+  <dimension ref="A1:I2308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81155,6 +81155,41 @@
         <v>368900</v>
       </c>
     </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2308" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2308" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2308" t="n">
+        <v>752500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2308"/>
+  <dimension ref="A1:I2309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81190,6 +81190,41 @@
         <v>752500</v>
       </c>
     </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2309" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2309" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2309" t="n">
+        <v>435000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2309"/>
+  <dimension ref="A1:I2310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81225,6 +81225,41 @@
         <v>435000</v>
       </c>
     </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2310" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2310" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2310" t="n">
+        <v>359900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2310"/>
+  <dimension ref="A1:I2311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81260,6 +81260,41 @@
         <v>359900</v>
       </c>
     </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2311" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2311" t="n">
+        <v>182800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2311"/>
+  <dimension ref="A1:I2312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81295,6 +81295,41 @@
         <v>182800</v>
       </c>
     </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2312" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2312" t="n">
+        <v>208800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8966.xlsx
+++ b/data/8966.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2312"/>
+  <dimension ref="A1:I2313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81330,6 +81330,41 @@
         <v>208800</v>
       </c>
     </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>51000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
